--- a/biology/Botanique/Paphiopedilum/Paphiopedilum.xlsx
+++ b/biology/Botanique/Paphiopedilum/Paphiopedilum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphiopedilum (du grec ancien : Πάφιος / Páphios, « de Paphos », adjectif qualifiant Aphrodite et πέδιλον / pédilon, « sandale ») est un genre d'orchidées semi-terrestres originaires d’Asie tropicale appelées couramment « Sabot de Vénus », faisant partie de la sous-famille des Cypripedioideae.
-Ce genre d'orchidées est composé d'environ 60 espèces[1].
+Ce genre d'orchidées est composé d'environ 60 espèces.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidée sans pseudobulbes, formant des touffes denses de feuilles disposées en éventail. Le feuillage est soit uni, soit « tesselé », c’est-à-dire tacheté : généralement vert sombre sur vert clair. L’envers des feuilles peut être finement ponctué de grenat chez certaines espèces. C’est au cœur de cet éventail de feuilles que naît l’inflorescence. La tige de cette dernière est le plus souvent recouverte d’une fine pilosité. La plante peut être uni- ou multiflore (produisant toutefois rarement plus de 5-10 fleurs). Les fleurs très particulières qui ont fait la renommée de ce genre sont formées d’un sépale dorsal, de deux pétales (formes et tailles très variables) et d’un synsépale, qui résulte de la fusion des deux sépales latéraux, ainsi que d’un labelle étrange, ressemblant à un chausson ou un sabot, comme le nom l’indique. Renflé ou anguleux il varie souvent beaucoup d’une espèce à l’autre. Les fleurs sont très rarement monochromes, mêlant souvent de nombreuses couleurs : brun, grenat, vert, blanc, rose, jaune, grenat, etc. Le tout orné de stries, verrues et poils.
 </t>
@@ -543,15 +557,52 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taxinomie du genre Paphiopedilum est complexe et souvent débattue. Toutefois de nombreuses classifications se rejoignent, surtout au niveau des sous-genres. Les variations apparaissent en ce qui concerne les sections. Braem en 1987 offre une classification en six sous-genres, en 1998 Cribb présente une classification ne comptant plus que quatre sous-genres.
 			Un spécimen de Paphiopedilum chamberlainium du jardin botanique de Bali.
 			Paphiopedilum henryanum.
 			Paphiopedilum fairrieanum.
 			Dessin de Paphiopedilum fairrieanum.
-Classification de Braem (1987)
-Sous-genre Parvisepalum
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification de Braem (1987)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Parvisepalum
 Sous-genre Brachypetalum
 Sous-genre Polyantha
 Section Mastigopetalum (Coryopedilum)
@@ -569,8 +620,43 @@
 Section Venustum
 Sous-genre Cochlopetalum
 Dans la classification de Cribb apparaissent toujours les sous-genres Parvisepalum, Brachypetalum, Cochlopetalum et Paphiopedilum. En revanche, les sous-genres Sigmatopetalum et Polyantha entrent dans le sous-genre Paphiopedilum. Ces deux sous-genres deviennent des sections selon Cribb qui donne comme section pour le sous-genre Paphiopedilum : Barabata, Coryopedilum, Pardalopetalum et Paphiopedilum. C'est-à-dire :
-Classification de Cribb (1998)
-Sous-genre Parvisepalum
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification de Cribb (1998)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre Parvisepalum
 Sous-genre Brachypetalum
 Sous-genre Paphiopedilum
 Section Coryopedilum
@@ -579,16 +665,133 @@
 Section Paphiopedilum
 Sous-genre Cochlopetalum
 Dans cette classification, une analyse des différences fondamentales entre les différents sous-genres est faite. Toutefois, la classification de Braem étant plus détaillée, elle est plus précise pour présenter quelles espèces sont affiliées à quelle section.
-Sous-genre Parvisepalum
-Espèces : Paphiopedilum armeniacum, P. delenatii, P. emersonii, P. malipoense, P. micranthum, P. vietnamense 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classification de Cribb (1998)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sous-genre Parvisepalum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces : Paphiopedilum armeniacum, P. delenatii, P. emersonii, P. malipoense, P. micranthum, P. vietnamense 
 Description : taille moyenne. Feuillage tesselé, uniflore, hampe florale très allongé, sépales et pétales vaguement ovales, labelle renflé et sphérique, irrégulier. Généralement monochrome : vert, rose, jaune, blanc.
 Répartition : Extrême-nord du Vietnam et nord-est du Laos, sud-est du Yunnan (Chine).    
-Sous-genre Brachypetalum
-Espèces : Paphiopedilum bellatulum, P. concolor, P. godefroyae, P. leucochilum, P. niveum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification de Cribb (1998)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sous-genre Brachypetalum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces : Paphiopedilum bellatulum, P. concolor, P. godefroyae, P. leucochilum, P. niveum.
 Description : petite taille. Feuillage tesselé, uniflore, hampe florale très courte, pétales (de grande taille comparée au reste de la fleur) et sépales ronds, labelle assez petit, presque cylindrique. Généralement blanche ou jaune, tachée de grenat.
 Répartition : Péninsule Malaise, Thaïlande, Indochine et est de Birmanie. 
-Sous-genre Polyantha
-Description : Grande taille. Feuillage uni. Multiflore. Hampe allongée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Classification de Cribb (1998)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sous-genre Polyantha</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description : Grande taille. Feuillage uni. Multiflore. Hampe allongée.
 Section Mastigopetalum (Coryopedilum)
 Espèces: Paphiopedilum adductum, P. anitum, P. gardinerii, P. glanduliferum, P. kolopakingii, P. gigantifolium, P. ooii, P. philippinense, P. praestans,
 P. randsii, P. rothschildianum, P. sanderianum, P. stonei, P. supardii, P. wilhelminae.
@@ -602,8 +805,47 @@
 Espèces : Paphiopedilum dianthum, P. parishii
 Répartition : Nord de la Thaïlande et de la Birmanie, Yunnan et Guizhou (Chine).
 Fleurs : Sépale dorsal en forme de losange, pétales très allongés, retombants et fortement vrillés. Labelle proéminent, mais arrondi. Couleurs : blanc, vert et brun, marqué parfois de grenat.
-Sous-genre Paphiopedilum
-Description : Taille moyenne à grande, uniflore, feuillage uni. Hampe allongée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Classification de Cribb (1998)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sous-genre Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description : Taille moyenne à grande, uniflore, feuillage uni. Hampe allongée.
 Section Paphiopedilum
 Espèces : Paphiopedilum barbigerum, P. boxalii, P. coccineum, P. exul, P. gratrixianum, P. helenae, P. henryanum, P. herrmannii, P. hirsutissimum, P. chaoi, P. charlesworthii, P. chiwuanum, P. insigne, P. spicerianum, P. tigrinum, P. tranlienianum, P. villosum.
 Fleurs : Sépale dorsal fortement ondulé, ressemblant vaguement à un losange. Pétales allongés, ondulés, légèrement spatulés. Labelle vaguement conique, luisant. Couleur : Quasiment toutes, aucune espèce monochrome, certaines tachetées. 
@@ -617,8 +859,47 @@
 Fleurs : Sépale dorsal fortement replié vers l'avant. Pétales oblongues, ondulés, arrondis à l'extrémité. Labelle vaguement conique brillant. Couleurs : Jaune, vert, blanc, veinures centrales marquées de grenat.
 NB : Les pousses se développent sur un rhizome très allongé.
 Répartition : Extrême-sud du Tamil Nadu (Inde).
-Sous-genre Sigmapetalum
-Description : Taille moyenne, feuillage tesselé, uniflore (rarement plus d'une fleur), hampe allongée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Classification de Cribb (1998)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sous-genre Sigmapetalum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description : Taille moyenne, feuillage tesselé, uniflore (rarement plus d'une fleur), hampe allongée.
 Section Spathopetalum
 Espèces : Paphiopedilum appletonianum, P. bullenianum, P. celebesensis, P. cerveranum, P. hookerae, P. johorense, P. linii, P. robinsonii.
 Fleurs : Sépale dorsal en forme de losange, rayé, parfois légèrement replié en avant. Pétales légèrement spatulés, pointus à l'extrémité, frisotés à la base. Labelle vaguement conique et anguleux. Couleurs : un mélange de rose, vert, brun, parfois d'autres couleurs, grenat notamment.
@@ -639,70 +920,113 @@
 Espèces : Paphiopedilum sukhakulii, P. venustum, P. wardii.
 Fleurs : sépale dorsal ovale, pointu, fortement veiné. Pétales oblongs et pointus, de grande taille, tachetés voir très fortement ponctués. Labelle vaguement conique, veiné. Couleurs : Blanc, vert, brun, jaune, rose, souvent veiné et tacheté de grenat.
 Répartition : Népal, Bengale, Birmanie, Thaïlande et Yunnan (Chine).
-Sous-genre Cochlopetalum
-Espèces : Paphiopedilum chamberlainianum, P. glaucophyllum, P. liemianum, P. moquetianum, P. primulinum
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Classification de Cribb (1998)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sous-genre Cochlopetalum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces : Paphiopedilum chamberlainianum, P. glaucophyllum, P. liemianum, P. moquetianum, P. primulinum
 Description : petite taille. Feuillage uni, pluriflore (une même hampe peut produire plusieurs dizaines de fleurs, toutefois elles s'ouvrent une par une et non simultanément). Hampe florale très allongée. Sépale dorsale ovale (un peu convexe de face), parfois légèrement ondulé sur les bords et striés. Pétales oblongs et étroits fortement frisotés, tachetés. Labelle peu allongé et arrondi.
 Répartition : Sumatra et ouest de Java.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paphiopedilum</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante originaire principalement d’Asie tropicale :  Depuis le centre de l’Inde jusqu’aux Îles Salomon et depuis le sud de la Chine et l’Himalaya jusqu’en Nouvelle-Guinée. Bref leur aire de répartition couvre une large part de l’Asie du Sud, ainsi que de l’Océanie, en zone équatoriale, tropicale et subtropicale. Elles sont propres aux forêts pluviales de plaines et de montagnes depuis le niveau de la mer jusqu’à 2 500 m d’altitude. Cela dit dans certaines zones montagneuses et notamment dans l'Himalaya elles poussent aussi dans les prairies humides à la lisière des forêts. Ce sont des orchidées terrestres, épiphytes (quelques espèces seulement) ou lithophytes. Plus généralement ces plantes poussent souvent aux abords des cours d’eau forestiers, profitant ainsi de plus de lumière et d’humidité. Elles font courir leurs racines entre les anfractuosités des rochers et la mousse pour puiser les sels minéraux de l’humus forestier.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Paphiopedilum</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Orchidée de culture plutôt facile. Toutefois il faut être vigilant avec l’arrosage car les racines sont très fragiles. Contrairement aux autres orchidées couramment répandues en culture, les espèces de Paphiopedilum ne sont pas acidophiles. C’est-à-dire qu’il faudra soit arroser la plante une fois tous les 2 mois avec une préparation contenant de la poudre de marbre ou de dolomie (une pointe de couteau par litre) ou alors arroser avec de l’eau du robinet si cette dernière est calcaire.
 Substrat : ces orchidées étant terrestres, leur substrat doit être un peu différent de celui des autres orchidées couramment vendues qui sont épiphytes pour la plupart (Phalaenopsis, Oncidium, etc.). Elles s'adaptent à de nombreux substrats, l'important est qu'ils soient poreux sans sécher trop vite. On peut par exemple utiliser un mélange d’écorces moyennes (1/2), de tourbe (1/4) et de perlite (1/4). Un mélange de billes d'argile (2/3) et de sphaigne hachée (1/3), auquel on ajoute un peu de terreau pas trop décomposé. Bien sûr il n’est plus nécessaire de fertiliser pour le second mélange car le terreau apporte des sels minéraux.
@@ -713,31 +1037,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Paphiopedilum</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Paphiopedilum acmodontum Schoser ex M.W.Wood
@@ -848,33 +1174,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Paphiopedilum</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paphiopedilum</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme de nombreuses orchidées sauvages, les Paphiopedilum sont désormais protégées par la CITES et leur commerce est interdit[2] comme le montre par exemple l'arrestation puis la condamnation à quatre mois de prison pour trafic de plantes du docteur Sian Lim en 2006[3].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme de nombreuses orchidées sauvages, les Paphiopedilum sont désormais protégées par la CITES et leur commerce est interdit comme le montre par exemple l'arrestation puis la condamnation à quatre mois de prison pour trafic de plantes du docteur Sian Lim en 2006.
 </t>
         </is>
       </c>
